--- a/pred_ohlcv/54_21/2019-10-24 THETA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 THETA ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>155814.9046641173</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>156131.9046641173</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>156131.9046641173</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>156129.9046641173</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>156129.9046641173</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>164638.9089641173</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>184838.9089641173</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>184838.9089641173</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>184838.9089641173</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>184838.9089641173</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>184548.6777641173</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>181446.5396641173</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>181446.5396641173</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>181455.8747641173</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>181455.8747641173</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>181455.8747641173</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>182555.8747641173</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>182555.8747641173</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>191955.8747641173</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>191955.8747641173</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>191955.8747641173</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>192063.3659641173</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>186146.3659641173</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>189927.0647641173</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>177227.0647641173</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>179784.7254641173</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>182485.7254641173</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>182485.7254641173</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>183565.9796641173</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>183565.9796641173</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>182985.9796641173</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>182985.9796641173</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>163785.9796641173</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>163785.9796641173</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>163785.9796641173</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>155609.8368641173</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>153208.8192641173</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>47448.91016411733</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-224152.9815358827</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-24 THETA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 THETA ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>155814.9046641173</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>156131.9046641173</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>156131.9046641173</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>156129.9046641173</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>156129.9046641173</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>164638.9089641173</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>184838.9089641173</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>184838.9089641173</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>184838.9089641173</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>184838.9089641173</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>184548.6777641173</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>181446.5396641173</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>181446.5396641173</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>181455.8747641173</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>181455.8747641173</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>181455.8747641173</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>182555.8747641173</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>182555.8747641173</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>191955.8747641173</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>191955.8747641173</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>191955.8747641173</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>186000.0126641173</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>189927.0647641173</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>189927.0647641173</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>177227.0647641173</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>177227.0647641173</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>177227.0647641173</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>182485.7254641173</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>182485.7254641173</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>183565.9796641173</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>183565.9796641173</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>182985.9796641173</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>182985.9796641173</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>163785.9796641173</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>163785.9796641173</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>163785.9796641173</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>155609.8368641173</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>153208.8192641173</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>153208.8192641173</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>47448.91016411733</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>47448.91016411733</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-215880.2741358827</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-220828.6604358827</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-224123.0565358827</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-224123.0565358827</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-224152.9815358827</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-224152.9815358827</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-224152.9815358827</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
